--- a/ЗАВОДЫ/Останкино/2025/заказы/филиалы и опт/2025/11,25/25,11,25 Ост КИ филиалы/дв 25,11,25 бррсч ост ки от Холодова.xlsx
+++ b/ЗАВОДЫ/Останкино/2025/заказы/филиалы и опт/2025/11,25/25,11,25 Ост КИ филиалы/дв 25,11,25 бррсч ост ки от Холодова.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\РАБОЧИЙ СТОЛ\25,11,25 Ост КИ филиалы\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\ЗАВОДЫ\Останкино\2025\заказы\филиалы и опт\2025\11,25\25,11,25 Ост КИ филиалы\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{462B5318-1FD4-4587-8308-80A56C4FD4A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAA33FB2-3667-418B-8343-A332F68A4116}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -196,9 +196,6 @@
   </si>
   <si>
     <t>5682 САЛЯМИ МЕЛКОЗЕРНЕНАЯ с/к в/у 1/120_60с   ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>нужно увеличить продажи / Обжора</t>
   </si>
   <si>
     <t>5706 АРОМАТНАЯ Папа может с/к в/у 1/250 8шт.  ОСТАНКИНО</t>
@@ -548,6 +545,9 @@
   </si>
   <si>
     <t>01,12,</t>
+  </si>
+  <si>
+    <t>нужно увеличить продажи / ротация на 7382</t>
   </si>
 </sst>
 </file>
@@ -1029,7 +1029,7 @@
       <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Y6" sqref="Y6"/>
+      <selection pane="bottomRight" activeCell="Y14" sqref="Y14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1221,19 +1221,19 @@
         <v>16</v>
       </c>
       <c r="S3" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="T3" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="T3" s="13" t="s">
+      <c r="U3" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="U3" s="13" t="s">
-        <v>156</v>
-      </c>
       <c r="V3" s="13" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="W3" s="13" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="X3" s="14" t="s">
         <v>17</v>
@@ -1326,10 +1326,10 @@
       <c r="T4" s="2"/>
       <c r="U4" s="2"/>
       <c r="V4" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="W4" s="2" t="s">
         <v>159</v>
-      </c>
-      <c r="W4" s="2" t="s">
-        <v>160</v>
       </c>
       <c r="X4" s="2"/>
       <c r="Y4" s="2"/>
@@ -1361,10 +1361,10 @@
       </c>
       <c r="AJ4" s="2"/>
       <c r="AK4" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="AL4" s="2" t="s">
         <v>159</v>
-      </c>
-      <c r="AL4" s="2" t="s">
-        <v>160</v>
       </c>
       <c r="AM4" s="2"/>
       <c r="AN4" s="2"/>
@@ -1746,7 +1746,7 @@
       </c>
       <c r="AJ7" s="2"/>
       <c r="AK7" s="2">
-        <f t="shared" ref="AK7:AL70" si="11">G7*V7</f>
+        <f t="shared" ref="AK7:AK70" si="11">G7*V7</f>
         <v>15</v>
       </c>
       <c r="AL7" s="2">
@@ -3132,7 +3132,7 @@
         <v>13.8</v>
       </c>
       <c r="AJ18" s="18" t="s">
-        <v>55</v>
+        <v>160</v>
       </c>
       <c r="AK18" s="2">
         <f t="shared" si="11"/>
@@ -3161,7 +3161,7 @@
     </row>
     <row r="19" spans="1:54">
       <c r="A19" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B19" s="7" t="s">
         <v>36</v>
@@ -3185,7 +3185,7 @@
         <v>120</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J19" s="7"/>
       <c r="K19" s="7">
@@ -3255,7 +3255,7 @@
         <v>27.4</v>
       </c>
       <c r="AJ19" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AK19" s="2">
         <f t="shared" si="11"/>
@@ -3284,7 +3284,7 @@
     </row>
     <row r="20" spans="1:54">
       <c r="A20" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>39</v>
@@ -3405,7 +3405,7 @@
     </row>
     <row r="21" spans="1:54">
       <c r="A21" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>36</v>
@@ -3528,7 +3528,7 @@
     </row>
     <row r="22" spans="1:54">
       <c r="A22" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>39</v>
@@ -3654,7 +3654,7 @@
     </row>
     <row r="23" spans="1:54">
       <c r="A23" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>36</v>
@@ -3780,7 +3780,7 @@
     </row>
     <row r="24" spans="1:54">
       <c r="A24" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>36</v>
@@ -3870,7 +3870,7 @@
         <v>-0.6</v>
       </c>
       <c r="AJ24" s="18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AK24" s="2">
         <f t="shared" si="11"/>
@@ -3899,7 +3899,7 @@
     </row>
     <row r="25" spans="1:54">
       <c r="A25" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>36</v>
@@ -3991,7 +3991,7 @@
         <v>0</v>
       </c>
       <c r="AJ25" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AK25" s="2">
         <f t="shared" si="11"/>
@@ -4020,7 +4020,7 @@
     </row>
     <row r="26" spans="1:54">
       <c r="A26" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>39</v>
@@ -4083,7 +4083,7 @@
         <v>150</v>
       </c>
       <c r="Y26" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Z26" s="2">
         <f t="shared" si="10"/>
@@ -4118,7 +4118,7 @@
         <v>0</v>
       </c>
       <c r="AJ26" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AK26" s="2">
         <f t="shared" si="11"/>
@@ -4147,7 +4147,7 @@
     </row>
     <row r="27" spans="1:54">
       <c r="A27" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>36</v>
@@ -4273,7 +4273,7 @@
     </row>
     <row r="28" spans="1:54">
       <c r="A28" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>36</v>
@@ -4399,7 +4399,7 @@
     </row>
     <row r="29" spans="1:54">
       <c r="A29" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>36</v>
@@ -4520,7 +4520,7 @@
     </row>
     <row r="30" spans="1:54">
       <c r="A30" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>36</v>
@@ -4644,7 +4644,7 @@
     </row>
     <row r="31" spans="1:54">
       <c r="A31" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>39</v>
@@ -4770,7 +4770,7 @@
     </row>
     <row r="32" spans="1:54">
       <c r="A32" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>36</v>
@@ -4896,7 +4896,7 @@
     </row>
     <row r="33" spans="1:54">
       <c r="A33" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>36</v>
@@ -5020,7 +5020,7 @@
     </row>
     <row r="34" spans="1:54">
       <c r="A34" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>36</v>
@@ -5149,7 +5149,7 @@
     </row>
     <row r="35" spans="1:54">
       <c r="A35" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>36</v>
@@ -5280,7 +5280,7 @@
     </row>
     <row r="36" spans="1:54">
       <c r="A36" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B36" s="7" t="s">
         <v>36</v>
@@ -5298,10 +5298,10 @@
         <v>#N/A</v>
       </c>
       <c r="I36" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="J36" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="J36" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="K36" s="7"/>
       <c r="L36" s="7">
@@ -5393,7 +5393,7 @@
     </row>
     <row r="37" spans="1:54">
       <c r="A37" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>36</v>
@@ -5524,7 +5524,7 @@
     </row>
     <row r="38" spans="1:54">
       <c r="A38" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>36</v>
@@ -5618,7 +5618,7 @@
         <v>1.8</v>
       </c>
       <c r="AJ38" s="18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AK38" s="2">
         <f t="shared" si="11"/>
@@ -5647,7 +5647,7 @@
     </row>
     <row r="39" spans="1:54">
       <c r="A39" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>36</v>
@@ -5772,7 +5772,7 @@
     </row>
     <row r="40" spans="1:54">
       <c r="A40" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>36</v>
@@ -5898,7 +5898,7 @@
     </row>
     <row r="41" spans="1:54">
       <c r="A41" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>36</v>
@@ -6022,7 +6022,7 @@
     </row>
     <row r="42" spans="1:54">
       <c r="A42" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>36</v>
@@ -6118,7 +6118,7 @@
         <v>45.2</v>
       </c>
       <c r="AJ42" s="18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AK42" s="2">
         <f t="shared" si="11"/>
@@ -6147,7 +6147,7 @@
     </row>
     <row r="43" spans="1:54">
       <c r="A43" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>39</v>
@@ -6273,7 +6273,7 @@
     </row>
     <row r="44" spans="1:54">
       <c r="A44" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>39</v>
@@ -6397,7 +6397,7 @@
     </row>
     <row r="45" spans="1:54">
       <c r="A45" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>39</v>
@@ -6521,7 +6521,7 @@
     </row>
     <row r="46" spans="1:54">
       <c r="A46" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>36</v>
@@ -6611,7 +6611,7 @@
         <v>5.8</v>
       </c>
       <c r="AJ46" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AK46" s="2">
         <f t="shared" si="11"/>
@@ -6640,7 +6640,7 @@
     </row>
     <row r="47" spans="1:54">
       <c r="A47" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>39</v>
@@ -6765,7 +6765,7 @@
     </row>
     <row r="48" spans="1:54">
       <c r="A48" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>36</v>
@@ -6894,7 +6894,7 @@
     </row>
     <row r="49" spans="1:54">
       <c r="A49" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>39</v>
@@ -7015,7 +7015,7 @@
     </row>
     <row r="50" spans="1:54">
       <c r="A50" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>36</v>
@@ -7079,7 +7079,7 @@
         <v>167.5</v>
       </c>
       <c r="W50" s="15">
-        <f t="shared" ref="W50:W51" si="18">U50/2</f>
+        <f t="shared" ref="W50" si="18">U50/2</f>
         <v>167.5</v>
       </c>
       <c r="X50" s="15"/>
@@ -7117,7 +7117,7 @@
         <v>65.8</v>
       </c>
       <c r="AJ50" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AK50" s="2">
         <f t="shared" si="11"/>
@@ -7146,7 +7146,7 @@
     </row>
     <row r="51" spans="1:54">
       <c r="A51" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>36</v>
@@ -7275,7 +7275,7 @@
     </row>
     <row r="52" spans="1:54">
       <c r="A52" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>36</v>
@@ -7396,7 +7396,7 @@
     </row>
     <row r="53" spans="1:54">
       <c r="A53" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B53" s="7" t="s">
         <v>39</v>
@@ -7416,7 +7416,7 @@
         <v>30</v>
       </c>
       <c r="I53" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J53" s="7"/>
       <c r="K53" s="7"/>
@@ -7484,7 +7484,7 @@
         <v>0</v>
       </c>
       <c r="AJ53" s="18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AK53" s="2">
         <f t="shared" si="11"/>
@@ -7513,7 +7513,7 @@
     </row>
     <row r="54" spans="1:54">
       <c r="A54" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>36</v>
@@ -7641,7 +7641,7 @@
     </row>
     <row r="55" spans="1:54">
       <c r="A55" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>36</v>
@@ -7763,7 +7763,7 @@
     </row>
     <row r="56" spans="1:54">
       <c r="A56" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>36</v>
@@ -7858,7 +7858,7 @@
         <v>0.2</v>
       </c>
       <c r="AJ56" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AK56" s="2">
         <f t="shared" si="11"/>
@@ -7887,7 +7887,7 @@
     </row>
     <row r="57" spans="1:54">
       <c r="A57" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>36</v>
@@ -8012,7 +8012,7 @@
     </row>
     <row r="58" spans="1:54">
       <c r="A58" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>36</v>
@@ -8137,7 +8137,7 @@
     </row>
     <row r="59" spans="1:54">
       <c r="A59" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B59" s="7" t="s">
         <v>36</v>
@@ -8157,7 +8157,7 @@
         <v>#N/A</v>
       </c>
       <c r="I59" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J59" s="7"/>
       <c r="K59" s="7">
@@ -8252,7 +8252,7 @@
     </row>
     <row r="60" spans="1:54">
       <c r="A60" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>39</v>
@@ -8379,7 +8379,7 @@
     </row>
     <row r="61" spans="1:54">
       <c r="A61" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>39</v>
@@ -8471,7 +8471,7 @@
         <v>0</v>
       </c>
       <c r="AJ61" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AK61" s="2">
         <f t="shared" si="11"/>
@@ -8500,7 +8500,7 @@
     </row>
     <row r="62" spans="1:54">
       <c r="A62" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>36</v>
@@ -8623,7 +8623,7 @@
     </row>
     <row r="63" spans="1:54">
       <c r="A63" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>36</v>
@@ -8747,7 +8747,7 @@
     </row>
     <row r="64" spans="1:54">
       <c r="A64" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>39</v>
@@ -8847,7 +8847,7 @@
         <v>4.9130000000000003</v>
       </c>
       <c r="AJ64" s="19" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AK64" s="2">
         <f t="shared" si="11"/>
@@ -8876,7 +8876,7 @@
     </row>
     <row r="65" spans="1:54">
       <c r="A65" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B65" s="7" t="s">
         <v>39</v>
@@ -8896,7 +8896,7 @@
         <v>90</v>
       </c>
       <c r="I65" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J65" s="7"/>
       <c r="K65" s="7"/>
@@ -8964,7 +8964,7 @@
         <v>0</v>
       </c>
       <c r="AJ65" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AK65" s="2">
         <f t="shared" si="11"/>
@@ -8993,7 +8993,7 @@
     </row>
     <row r="66" spans="1:54">
       <c r="A66" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>36</v>
@@ -9090,7 +9090,7 @@
         <v>0</v>
       </c>
       <c r="AJ66" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AK66" s="2">
         <f t="shared" si="11"/>
@@ -9119,7 +9119,7 @@
     </row>
     <row r="67" spans="1:54">
       <c r="A67" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>39</v>
@@ -9240,7 +9240,7 @@
     </row>
     <row r="68" spans="1:54">
       <c r="A68" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>36</v>
@@ -9369,7 +9369,7 @@
     </row>
     <row r="69" spans="1:54">
       <c r="A69" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>39</v>
@@ -9495,7 +9495,7 @@
     </row>
     <row r="70" spans="1:54">
       <c r="A70" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>36</v>
@@ -9622,7 +9622,7 @@
     </row>
     <row r="71" spans="1:54">
       <c r="A71" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>39</v>
@@ -9719,7 +9719,7 @@
         <v>51</v>
       </c>
       <c r="AK71" s="2">
-        <f t="shared" ref="AK71:AL96" si="31">G71*V71</f>
+        <f t="shared" ref="AK71:AK96" si="31">G71*V71</f>
         <v>0</v>
       </c>
       <c r="AL71" s="2">
@@ -9745,7 +9745,7 @@
     </row>
     <row r="72" spans="1:54">
       <c r="A72" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B72" s="7" t="s">
         <v>36</v>
@@ -9769,7 +9769,7 @@
         <v>50</v>
       </c>
       <c r="I72" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J72" s="7"/>
       <c r="K72" s="7">
@@ -9839,7 +9839,7 @@
         <v>96.2</v>
       </c>
       <c r="AJ72" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AK72" s="2">
         <f t="shared" si="31"/>
@@ -9868,7 +9868,7 @@
     </row>
     <row r="73" spans="1:54">
       <c r="A73" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>36</v>
@@ -9997,7 +9997,7 @@
     </row>
     <row r="74" spans="1:54">
       <c r="A74" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>39</v>
@@ -10120,7 +10120,7 @@
     </row>
     <row r="75" spans="1:54">
       <c r="A75" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>36</v>
@@ -10217,7 +10217,7 @@
         <v>-0.6</v>
       </c>
       <c r="AJ75" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AK75" s="2">
         <f t="shared" si="31"/>
@@ -10246,7 +10246,7 @@
     </row>
     <row r="76" spans="1:54">
       <c r="A76" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>36</v>
@@ -10367,7 +10367,7 @@
     </row>
     <row r="77" spans="1:54">
       <c r="A77" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>36</v>
@@ -10492,7 +10492,7 @@
     </row>
     <row r="78" spans="1:54">
       <c r="A78" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>39</v>
@@ -10614,7 +10614,7 @@
     </row>
     <row r="79" spans="1:54">
       <c r="A79" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>36</v>
@@ -10735,7 +10735,7 @@
     </row>
     <row r="80" spans="1:54">
       <c r="A80" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>36</v>
@@ -10825,7 +10825,7 @@
         <v>0</v>
       </c>
       <c r="AJ80" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AK80" s="2">
         <f t="shared" si="31"/>
@@ -10854,7 +10854,7 @@
     </row>
     <row r="81" spans="1:54">
       <c r="A81" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>36</v>
@@ -10984,7 +10984,7 @@
     </row>
     <row r="82" spans="1:54">
       <c r="A82" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>39</v>
@@ -11050,7 +11050,7 @@
         <v>60</v>
       </c>
       <c r="Y82" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="Z82" s="2">
         <f t="shared" si="30"/>
@@ -11085,7 +11085,7 @@
         <v>0</v>
       </c>
       <c r="AJ82" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AK82" s="2">
         <f t="shared" si="31"/>
@@ -11114,7 +11114,7 @@
     </row>
     <row r="83" spans="1:54">
       <c r="A83" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>39</v>
@@ -11243,7 +11243,7 @@
     </row>
     <row r="84" spans="1:54">
       <c r="A84" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>36</v>
@@ -11372,7 +11372,7 @@
     </row>
     <row r="85" spans="1:54">
       <c r="A85" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>36</v>
@@ -11493,7 +11493,7 @@
     </row>
     <row r="86" spans="1:54">
       <c r="A86" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>36</v>
@@ -11614,7 +11614,7 @@
     </row>
     <row r="87" spans="1:54">
       <c r="A87" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>36</v>
@@ -11678,7 +11678,7 @@
         <v>142</v>
       </c>
       <c r="W87" s="15">
-        <f t="shared" ref="W87:W91" si="35">U87/2</f>
+        <f t="shared" ref="W87:W90" si="35">U87/2</f>
         <v>142</v>
       </c>
       <c r="X87" s="15"/>
@@ -11743,7 +11743,7 @@
     </row>
     <row r="88" spans="1:54">
       <c r="A88" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>36</v>
@@ -11872,7 +11872,7 @@
     </row>
     <row r="89" spans="1:54">
       <c r="A89" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>36</v>
@@ -11995,7 +11995,7 @@
     </row>
     <row r="90" spans="1:54">
       <c r="A90" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>36</v>
@@ -12124,7 +12124,7 @@
     </row>
     <row r="91" spans="1:54">
       <c r="A91" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>36</v>
@@ -12224,7 +12224,7 @@
         <v>0</v>
       </c>
       <c r="AJ91" s="20" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AK91" s="2">
         <f t="shared" si="31"/>
@@ -12253,7 +12253,7 @@
     </row>
     <row r="92" spans="1:54">
       <c r="A92" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>36</v>
@@ -12350,7 +12350,7 @@
         <v>-0.8</v>
       </c>
       <c r="AJ92" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AK92" s="2">
         <f t="shared" si="31"/>
@@ -12379,7 +12379,7 @@
     </row>
     <row r="93" spans="1:54">
       <c r="A93" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>36</v>
@@ -12471,7 +12471,7 @@
         <v>2.6</v>
       </c>
       <c r="AJ93" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AK93" s="2">
         <f t="shared" si="31"/>
@@ -12500,7 +12500,7 @@
     </row>
     <row r="94" spans="1:54">
       <c r="A94" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>39</v>
@@ -12594,7 +12594,7 @@
         <v>0</v>
       </c>
       <c r="AJ94" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AK94" s="2">
         <f t="shared" si="31"/>
@@ -12623,7 +12623,7 @@
     </row>
     <row r="95" spans="1:54">
       <c r="A95" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>36</v>
@@ -12717,7 +12717,7 @@
         <v>0</v>
       </c>
       <c r="AJ95" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AK95" s="2">
         <f t="shared" si="31"/>
@@ -12746,7 +12746,7 @@
     </row>
     <row r="96" spans="1:54">
       <c r="A96" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>36</v>
@@ -12838,7 +12838,7 @@
         <v>0</v>
       </c>
       <c r="AJ96" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AK96" s="2">
         <f t="shared" si="31"/>
